--- a/pyloghub/sample_data/CO2Air.xlsx
+++ b/pyloghub/sample_data/CO2Air.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28226AA-C758-4E71-8FDE-630726A54E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95C0EE-89F7-417D-8A2A-2D053A1C1AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C18F44DF-095C-4376-AE3C-C99D9528345A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F44DF-095C-4376-AE3C-C99D9528345A}"/>
   </bookViews>
   <sheets>
     <sheet name="air" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="235">
   <si>
     <t>shipment_001</t>
   </si>
@@ -47,9 +47,6 @@
     <t>ANC</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -737,13 +734,13 @@
     <t>toIataCode</t>
   </si>
   <si>
-    <t>flightNumber</t>
-  </si>
-  <si>
     <t>isRefrigirated</t>
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
 </sst>
 </file>
@@ -832,8 +829,8 @@
     <tableColumn id="2" xr3:uid="{18B8D7FA-5025-41CB-90D4-D828D28ABFF7}" name="shipmentDate" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DAA71BE5-F16C-4721-B47C-5925BC77097E}" name="fromIataCode"/>
     <tableColumn id="4" xr3:uid="{C86223AD-9814-49A9-BAFE-A4E7F954BEEC}" name="toIataCode"/>
-    <tableColumn id="5" xr3:uid="{82B45DB4-1957-4B98-8832-960E9D6553CC}" name="flightNumber"/>
     <tableColumn id="6" xr3:uid="{7E866983-C4B7-464F-8BCB-EE3D32048EB3}" name="isRefrigirated"/>
+    <tableColumn id="9" xr3:uid="{4A011803-B2EE-42F7-A026-56C22ABAD799}" name="distance"/>
     <tableColumn id="7" xr3:uid="{688E0F10-621D-48C3-B6C6-D7F0427038FA}" name="weight"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1187,35 +1184,35 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1234,19 +1231,16 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
       <c r="H2">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>44806</v>
@@ -1260,19 +1254,16 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
       <c r="H3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>44807</v>
@@ -1286,19 +1277,16 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
       <c r="H4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>44808</v>
@@ -1312,19 +1300,16 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
       <c r="H5">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>44809</v>
@@ -1338,19 +1323,16 @@
       <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
       <c r="H6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>44810</v>
@@ -1364,19 +1346,16 @@
       <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
       <c r="H7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>44811</v>
@@ -1390,19 +1369,16 @@
       <c r="F8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
       <c r="H8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>44812</v>
@@ -1416,19 +1392,16 @@
       <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
       <c r="H9">
         <v>722</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>44813</v>
@@ -1442,19 +1415,16 @@
       <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
       <c r="H10">
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>44814</v>
@@ -1468,19 +1438,16 @@
       <c r="F11" t="s">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
       <c r="H11">
         <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>44815</v>
@@ -1494,19 +1461,16 @@
       <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
       <c r="H12">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>44816</v>
@@ -1520,19 +1484,16 @@
       <c r="F13" t="s">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
       <c r="H13">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>44817</v>
@@ -1546,19 +1507,16 @@
       <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
       <c r="H14">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>44818</v>
@@ -1572,19 +1530,16 @@
       <c r="F15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
       <c r="H15">
         <v>812</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>44819</v>
@@ -1593,24 +1548,21 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
       </c>
       <c r="H16">
         <v>736</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>44820</v>
@@ -1619,24 +1571,21 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
       </c>
       <c r="H17">
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>44821</v>
@@ -1645,24 +1594,21 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
       </c>
       <c r="H18">
         <v>647</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>44822</v>
@@ -1671,24 +1617,21 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
       </c>
       <c r="H19">
         <v>839</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>44823</v>
@@ -1697,24 +1640,21 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4</v>
       </c>
       <c r="H20">
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>44824</v>
@@ -1723,24 +1663,21 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4</v>
       </c>
       <c r="H21">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>44825</v>
@@ -1749,24 +1686,21 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
       </c>
       <c r="H22">
         <v>928</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>44826</v>
@@ -1775,24 +1709,21 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
       </c>
       <c r="H23">
         <v>673</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>44827</v>
@@ -1801,24 +1732,21 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
       </c>
       <c r="H24">
         <v>847</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>44828</v>
@@ -1827,24 +1755,21 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4</v>
       </c>
       <c r="H25">
         <v>828</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>44829</v>
@@ -1853,24 +1778,21 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
       </c>
       <c r="H26">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>44830</v>
@@ -1879,24 +1801,21 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4</v>
       </c>
       <c r="H27">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>44831</v>
@@ -1905,24 +1824,21 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4</v>
       </c>
       <c r="H28">
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>44832</v>
@@ -1931,24 +1847,21 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4</v>
       </c>
       <c r="H29">
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>44833</v>
@@ -1957,24 +1870,21 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4</v>
       </c>
       <c r="H30">
         <v>959</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>44834</v>
@@ -1983,24 +1893,21 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4</v>
       </c>
       <c r="H31">
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>44835</v>
@@ -2009,24 +1916,21 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4</v>
       </c>
       <c r="H32">
         <v>919</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>44836</v>
@@ -2035,24 +1939,21 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>4</v>
       </c>
       <c r="H33">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>44837</v>
@@ -2061,24 +1962,21 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4</v>
       </c>
       <c r="H34">
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>44838</v>
@@ -2087,24 +1985,21 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>4</v>
       </c>
       <c r="H35">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <v>44839</v>
@@ -2113,24 +2008,21 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4</v>
       </c>
       <c r="H36">
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
         <v>44840</v>
@@ -2139,24 +2031,21 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4</v>
       </c>
       <c r="H37">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>44841</v>
@@ -2165,24 +2054,21 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4</v>
       </c>
       <c r="H38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1">
         <v>44842</v>
@@ -2191,24 +2077,21 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
       </c>
       <c r="H39">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <v>44843</v>
@@ -2217,24 +2100,21 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>4</v>
       </c>
       <c r="H40">
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <v>44844</v>
@@ -2243,24 +2123,21 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4</v>
       </c>
       <c r="H41">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <v>44845</v>
@@ -2269,24 +2146,21 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4</v>
       </c>
       <c r="H42">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <v>44846</v>
@@ -2295,24 +2169,21 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>4</v>
       </c>
       <c r="H43">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
         <v>44847</v>
@@ -2321,24 +2192,21 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4</v>
       </c>
       <c r="H44">
         <v>722</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1">
         <v>44848</v>
@@ -2347,24 +2215,21 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>4</v>
       </c>
       <c r="H45">
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1">
         <v>44849</v>
@@ -2373,24 +2238,21 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>4</v>
       </c>
       <c r="H46">
         <v>472</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1">
         <v>44850</v>
@@ -2399,24 +2261,21 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4</v>
       </c>
       <c r="H47">
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
         <v>44851</v>
@@ -2425,24 +2284,21 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>4</v>
       </c>
       <c r="H48">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1">
         <v>44852</v>
@@ -2451,24 +2307,21 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4</v>
       </c>
       <c r="H49">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1">
         <v>44853</v>
@@ -2477,24 +2330,21 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4</v>
       </c>
       <c r="H50">
         <v>812</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1">
         <v>44854</v>
@@ -2503,24 +2353,21 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
         <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4</v>
       </c>
       <c r="H51">
         <v>736</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1">
         <v>44855</v>
@@ -2529,24 +2376,21 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
         <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4</v>
       </c>
       <c r="H52">
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1">
         <v>44856</v>
@@ -2555,24 +2399,21 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4</v>
       </c>
       <c r="H53">
         <v>647</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1">
         <v>44857</v>
@@ -2581,24 +2422,21 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
         <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>4</v>
       </c>
       <c r="H54">
         <v>839</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="1">
         <v>44858</v>
@@ -2607,24 +2445,21 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
         <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>4</v>
       </c>
       <c r="H55">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="1">
         <v>44859</v>
@@ -2633,24 +2468,21 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>4</v>
       </c>
       <c r="H56">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1">
         <v>44860</v>
@@ -2659,24 +2491,21 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>4</v>
       </c>
       <c r="H57">
         <v>928</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1">
         <v>44861</v>
@@ -2685,24 +2514,21 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
         <v>3</v>
-      </c>
-      <c r="G58" t="s">
-        <v>4</v>
       </c>
       <c r="H58">
         <v>673</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1">
         <v>44862</v>
@@ -2711,24 +2537,21 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>4</v>
       </c>
       <c r="H59">
         <v>847</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1">
         <v>44863</v>
@@ -2737,24 +2560,21 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>4</v>
       </c>
       <c r="H60">
         <v>828</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1">
         <v>44864</v>
@@ -2763,24 +2583,21 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
         <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>4</v>
       </c>
       <c r="H61">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="1">
         <v>44865</v>
@@ -2789,24 +2606,21 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
         <v>3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>4</v>
       </c>
       <c r="H62">
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1">
         <v>44805</v>
@@ -2815,24 +2629,21 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
-      </c>
-      <c r="G63" t="s">
-        <v>4</v>
       </c>
       <c r="H63">
         <v>444</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="1">
         <v>44805</v>
@@ -2841,24 +2652,21 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>4</v>
       </c>
       <c r="H64">
         <v>484</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1">
         <v>44806</v>
@@ -2867,24 +2675,21 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
-      </c>
-      <c r="G65" t="s">
-        <v>4</v>
       </c>
       <c r="H65">
         <v>959</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1">
         <v>44809</v>
@@ -2893,24 +2698,21 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
-      </c>
-      <c r="G66" t="s">
-        <v>4</v>
       </c>
       <c r="H66">
         <v>929</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1">
         <v>44809</v>
@@ -2919,24 +2721,21 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
         <v>3</v>
-      </c>
-      <c r="G67" t="s">
-        <v>4</v>
       </c>
       <c r="H67">
         <v>919</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1">
         <v>44809</v>
@@ -2945,24 +2744,21 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
-      </c>
-      <c r="G68" t="s">
-        <v>4</v>
       </c>
       <c r="H68">
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="1">
         <v>44809</v>
@@ -2971,24 +2767,21 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
         <v>3</v>
-      </c>
-      <c r="G69" t="s">
-        <v>4</v>
       </c>
       <c r="H69">
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="1">
         <v>44810</v>
@@ -2997,24 +2790,21 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
         <v>3</v>
-      </c>
-      <c r="G70" t="s">
-        <v>4</v>
       </c>
       <c r="H70">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1">
         <v>44810</v>
@@ -3023,24 +2813,21 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
         <v>3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4</v>
       </c>
       <c r="H71">
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1">
         <v>44810</v>
@@ -3049,24 +2836,21 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s">
         <v>3</v>
-      </c>
-      <c r="G72" t="s">
-        <v>4</v>
       </c>
       <c r="H72">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" s="1">
         <v>44811</v>
@@ -3075,24 +2859,21 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
-      </c>
-      <c r="G73" t="s">
-        <v>4</v>
       </c>
       <c r="H73">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="1">
         <v>44811</v>
@@ -3101,24 +2882,21 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s">
         <v>3</v>
-      </c>
-      <c r="G74" t="s">
-        <v>4</v>
       </c>
       <c r="H74">
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="1">
         <v>44813</v>
@@ -3127,24 +2905,21 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
         <v>3</v>
-      </c>
-      <c r="G75" t="s">
-        <v>4</v>
       </c>
       <c r="H75">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="1">
         <v>44813</v>
@@ -3153,24 +2928,21 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
-      </c>
-      <c r="G76" t="s">
-        <v>4</v>
       </c>
       <c r="H76">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1">
         <v>44813</v>
@@ -3179,24 +2951,21 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
-      </c>
-      <c r="G77" t="s">
-        <v>4</v>
       </c>
       <c r="H77">
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="1">
         <v>44813</v>
@@ -3205,24 +2974,21 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s">
         <v>3</v>
-      </c>
-      <c r="G78" t="s">
-        <v>4</v>
       </c>
       <c r="H78">
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="1">
         <v>44813</v>
@@ -3231,24 +2997,21 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F79" t="s">
         <v>3</v>
-      </c>
-      <c r="G79" t="s">
-        <v>4</v>
       </c>
       <c r="H79">
         <v>722</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="1">
         <v>44813</v>
@@ -3257,24 +3020,21 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
-      </c>
-      <c r="G80" t="s">
-        <v>4</v>
       </c>
       <c r="H80">
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="1">
         <v>44813</v>
@@ -3283,24 +3043,21 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
-      </c>
-      <c r="G81" t="s">
-        <v>4</v>
       </c>
       <c r="H81">
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="1">
         <v>44814</v>
@@ -3309,24 +3066,21 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4</v>
       </c>
       <c r="H82">
         <v>322</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="1">
         <v>44815</v>
@@ -3335,24 +3089,21 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F83" t="s">
         <v>3</v>
-      </c>
-      <c r="G83" t="s">
-        <v>4</v>
       </c>
       <c r="H83">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="1">
         <v>44815</v>
@@ -3361,24 +3112,21 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
-      </c>
-      <c r="G84" t="s">
-        <v>4</v>
       </c>
       <c r="H84">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>44816</v>
@@ -3387,24 +3135,21 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
-      </c>
-      <c r="G85" t="s">
-        <v>4</v>
       </c>
       <c r="H85">
         <v>812</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="1">
         <v>44816</v>
@@ -3413,24 +3158,21 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
-      </c>
-      <c r="G86" t="s">
-        <v>4</v>
       </c>
       <c r="H86">
         <v>736</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" s="1">
         <v>44816</v>
@@ -3439,24 +3181,21 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
-      </c>
-      <c r="G87" t="s">
-        <v>4</v>
       </c>
       <c r="H87">
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" s="1">
         <v>44816</v>
@@ -3465,24 +3204,21 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
-      </c>
-      <c r="G88" t="s">
-        <v>4</v>
       </c>
       <c r="H88">
         <v>647</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1">
         <v>44816</v>
@@ -3491,24 +3227,21 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
-      </c>
-      <c r="G89" t="s">
-        <v>4</v>
       </c>
       <c r="H89">
         <v>839</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="1">
         <v>44816</v>
@@ -3517,24 +3250,21 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
-      </c>
-      <c r="G90" t="s">
-        <v>4</v>
       </c>
       <c r="H90">
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="1">
         <v>44816</v>
@@ -3543,24 +3273,21 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
-      </c>
-      <c r="G91" t="s">
-        <v>4</v>
       </c>
       <c r="H91">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="1">
         <v>44816</v>
@@ -3569,24 +3296,21 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
-      </c>
-      <c r="G92" t="s">
-        <v>4</v>
       </c>
       <c r="H92">
         <v>928</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="1">
         <v>44816</v>
@@ -3595,24 +3319,21 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
-      </c>
-      <c r="G93" t="s">
-        <v>4</v>
       </c>
       <c r="H93">
         <v>673</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" s="1">
         <v>44816</v>
@@ -3621,24 +3342,21 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
-      </c>
-      <c r="G94" t="s">
-        <v>4</v>
       </c>
       <c r="H94">
         <v>847</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" s="1">
         <v>44817</v>
@@ -3647,24 +3365,21 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
-      </c>
-      <c r="G95" t="s">
-        <v>4</v>
       </c>
       <c r="H95">
         <v>828</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" s="1">
         <v>44817</v>
@@ -3673,24 +3388,21 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
-      </c>
-      <c r="G96" t="s">
-        <v>4</v>
       </c>
       <c r="H96">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="1">
         <v>44818</v>
@@ -3699,24 +3411,21 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
-      </c>
-      <c r="G97" t="s">
-        <v>4</v>
       </c>
       <c r="H97">
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="1">
         <v>44819</v>
@@ -3725,24 +3434,21 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
-      </c>
-      <c r="G98" t="s">
-        <v>4</v>
       </c>
       <c r="H98">
         <v>444</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="1">
         <v>44819</v>
@@ -3751,24 +3457,21 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
-      </c>
-      <c r="G99" t="s">
-        <v>4</v>
       </c>
       <c r="H99">
         <v>484</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" s="1">
         <v>44819</v>
@@ -3777,24 +3480,21 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
-      </c>
-      <c r="G100" t="s">
-        <v>4</v>
       </c>
       <c r="H100">
         <v>959</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="1">
         <v>44819</v>
@@ -3803,24 +3503,21 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
-      </c>
-      <c r="G101" t="s">
-        <v>4</v>
       </c>
       <c r="H101">
         <v>929</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="1">
         <v>44819</v>
@@ -3829,24 +3526,21 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
-      </c>
-      <c r="G102" t="s">
-        <v>4</v>
       </c>
       <c r="H102">
         <v>919</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="1">
         <v>44819</v>
@@ -3855,24 +3549,21 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>4</v>
       </c>
       <c r="H103">
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="1">
         <v>44819</v>
@@ -3881,24 +3572,21 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
-      </c>
-      <c r="G104" t="s">
-        <v>4</v>
       </c>
       <c r="H104">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="1">
         <v>44819</v>
@@ -3907,24 +3595,21 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
-      </c>
-      <c r="G105" t="s">
-        <v>4</v>
       </c>
       <c r="H105">
         <v>267</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="1">
         <v>44820</v>
@@ -3933,24 +3618,21 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>4</v>
       </c>
       <c r="H106">
         <v>347</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1">
         <v>44820</v>
@@ -3959,24 +3641,21 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
-      </c>
-      <c r="G107" t="s">
-        <v>4</v>
       </c>
       <c r="H107">
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="1">
         <v>44820</v>
@@ -3985,24 +3664,21 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
-      </c>
-      <c r="G108" t="s">
-        <v>4</v>
       </c>
       <c r="H108">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="1">
         <v>44820</v>
@@ -4011,24 +3687,21 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
-      </c>
-      <c r="G109" t="s">
-        <v>4</v>
       </c>
       <c r="H109">
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C110" s="1">
         <v>44820</v>
@@ -4037,24 +3710,21 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F110" t="s">
         <v>3</v>
-      </c>
-      <c r="G110" t="s">
-        <v>4</v>
       </c>
       <c r="H110">
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1">
         <v>44820</v>
@@ -4063,24 +3733,21 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F111" t="s">
         <v>3</v>
-      </c>
-      <c r="G111" t="s">
-        <v>4</v>
       </c>
       <c r="H111">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" s="1">
         <v>44823</v>
@@ -4089,24 +3756,21 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F112" t="s">
         <v>3</v>
-      </c>
-      <c r="G112" t="s">
-        <v>4</v>
       </c>
       <c r="H112">
         <v>600</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113" s="1">
         <v>44824</v>
@@ -4115,24 +3779,21 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
-      </c>
-      <c r="G113" t="s">
-        <v>4</v>
       </c>
       <c r="H113">
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="1">
         <v>44825</v>
@@ -4141,24 +3802,21 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
-      </c>
-      <c r="G114" t="s">
-        <v>4</v>
       </c>
       <c r="H114">
         <v>722</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C115" s="1">
         <v>44825</v>
@@ -4167,24 +3825,21 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
-      </c>
-      <c r="G115" t="s">
-        <v>4</v>
       </c>
       <c r="H115">
         <v>387</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C116" s="1">
         <v>44825</v>
@@ -4193,24 +3848,21 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F116" t="s">
         <v>3</v>
-      </c>
-      <c r="G116" t="s">
-        <v>4</v>
       </c>
       <c r="H116">
         <v>472</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C117" s="1">
         <v>44826</v>
@@ -4219,24 +3871,21 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
-      </c>
-      <c r="G117" t="s">
-        <v>4</v>
       </c>
       <c r="H117">
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118" s="1">
         <v>44826</v>
@@ -4245,24 +3894,21 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
-      </c>
-      <c r="G118" t="s">
-        <v>4</v>
       </c>
       <c r="H118">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C119" s="1">
         <v>44826</v>
@@ -4271,24 +3917,21 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
-      </c>
-      <c r="G119" t="s">
-        <v>4</v>
       </c>
       <c r="H119">
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" s="1">
         <v>44826</v>
@@ -4297,24 +3940,21 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F120" t="s">
         <v>3</v>
-      </c>
-      <c r="G120" t="s">
-        <v>4</v>
       </c>
       <c r="H120">
         <v>812</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C121" s="1">
         <v>44826</v>
@@ -4323,24 +3963,21 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
-      </c>
-      <c r="G121" t="s">
-        <v>4</v>
       </c>
       <c r="H121">
         <v>736</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C122" s="1">
         <v>44826</v>
@@ -4349,24 +3986,21 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F122" t="s">
         <v>3</v>
-      </c>
-      <c r="G122" t="s">
-        <v>4</v>
       </c>
       <c r="H122">
         <v>283</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" s="1">
         <v>44827</v>
@@ -4375,24 +4009,21 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F123" t="s">
         <v>3</v>
-      </c>
-      <c r="G123" t="s">
-        <v>4</v>
       </c>
       <c r="H123">
         <v>647</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="1">
         <v>44827</v>
@@ -4401,24 +4032,21 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
-      </c>
-      <c r="G124" t="s">
-        <v>4</v>
       </c>
       <c r="H124">
         <v>839</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="1">
         <v>44827</v>
@@ -4427,24 +4055,21 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
-      </c>
-      <c r="G125" t="s">
-        <v>4</v>
       </c>
       <c r="H125">
         <v>287</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="1">
         <v>44830</v>
@@ -4453,24 +4078,21 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
-      </c>
-      <c r="G126" t="s">
-        <v>4</v>
       </c>
       <c r="H126">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="1">
         <v>44830</v>
@@ -4479,24 +4101,21 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F127" t="s">
         <v>3</v>
-      </c>
-      <c r="G127" t="s">
-        <v>4</v>
       </c>
       <c r="H127">
         <v>928</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C128" s="1">
         <v>44830</v>
@@ -4505,24 +4124,21 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
-      </c>
-      <c r="G128" t="s">
-        <v>4</v>
       </c>
       <c r="H128">
         <v>673</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" s="1">
         <v>44831</v>
@@ -4531,24 +4147,21 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
-      </c>
-      <c r="G129" t="s">
-        <v>4</v>
       </c>
       <c r="H129">
         <v>847</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" s="1">
         <v>44831</v>
@@ -4557,24 +4170,21 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
-      </c>
-      <c r="G130" t="s">
-        <v>4</v>
       </c>
       <c r="H130">
         <v>828</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" s="1">
         <v>44832</v>
@@ -4583,24 +4193,21 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
-      </c>
-      <c r="G131" t="s">
-        <v>4</v>
       </c>
       <c r="H131">
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C132" s="1">
         <v>44832</v>
@@ -4609,24 +4216,21 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F132" t="s">
         <v>3</v>
-      </c>
-      <c r="G132" t="s">
-        <v>4</v>
       </c>
       <c r="H132">
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C133" s="1">
         <v>44833</v>
@@ -4635,24 +4239,21 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
-      </c>
-      <c r="G133" t="s">
-        <v>4</v>
       </c>
       <c r="H133">
         <v>444</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C134" s="1">
         <v>44833</v>
@@ -4661,24 +4262,21 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F134" t="s">
         <v>3</v>
-      </c>
-      <c r="G134" t="s">
-        <v>4</v>
       </c>
       <c r="H134">
         <v>484</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135" s="1">
         <v>44833</v>
@@ -4687,24 +4285,21 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F135" t="s">
         <v>3</v>
-      </c>
-      <c r="G135" t="s">
-        <v>4</v>
       </c>
       <c r="H135">
         <v>959</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136" s="1">
         <v>44833</v>
@@ -4713,24 +4308,21 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F136" t="s">
         <v>3</v>
-      </c>
-      <c r="G136" t="s">
-        <v>4</v>
       </c>
       <c r="H136">
         <v>929</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" s="1">
         <v>44833</v>
@@ -4739,24 +4331,21 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F137" t="s">
         <v>3</v>
-      </c>
-      <c r="G137" t="s">
-        <v>4</v>
       </c>
       <c r="H137">
         <v>919</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C138" s="1">
         <v>44833</v>
@@ -4765,24 +4354,21 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
-      </c>
-      <c r="G138" t="s">
-        <v>4</v>
       </c>
       <c r="H138">
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" s="1">
         <v>44833</v>
@@ -4791,24 +4377,21 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F139" t="s">
         <v>3</v>
-      </c>
-      <c r="G139" t="s">
-        <v>4</v>
       </c>
       <c r="H139">
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C140" s="1">
         <v>44833</v>
@@ -4817,24 +4400,21 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F140" t="s">
         <v>3</v>
-      </c>
-      <c r="G140" t="s">
-        <v>4</v>
       </c>
       <c r="H140">
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" s="1">
         <v>44834</v>
@@ -4843,24 +4423,21 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F141" t="s">
         <v>3</v>
-      </c>
-      <c r="G141" t="s">
-        <v>4</v>
       </c>
       <c r="H141">
         <v>347</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" s="1">
         <v>44834</v>
@@ -4869,24 +4446,21 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F142" t="s">
         <v>3</v>
-      </c>
-      <c r="G142" t="s">
-        <v>4</v>
       </c>
       <c r="H142">
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="1">
         <v>44837</v>
@@ -4895,24 +4469,21 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F143" t="s">
         <v>3</v>
-      </c>
-      <c r="G143" t="s">
-        <v>4</v>
       </c>
       <c r="H143">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C144" s="1">
         <v>44837</v>
@@ -4921,24 +4492,21 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F144" t="s">
         <v>3</v>
-      </c>
-      <c r="G144" t="s">
-        <v>4</v>
       </c>
       <c r="H144">
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" s="1">
         <v>44837</v>
@@ -4947,24 +4515,21 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F145" t="s">
         <v>3</v>
-      </c>
-      <c r="G145" t="s">
-        <v>4</v>
       </c>
       <c r="H145">
         <v>250</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="1">
         <v>44837</v>
@@ -4973,24 +4538,21 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F146" t="s">
         <v>3</v>
-      </c>
-      <c r="G146" t="s">
-        <v>4</v>
       </c>
       <c r="H146">
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C147" s="1">
         <v>44837</v>
@@ -4999,24 +4561,21 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
-      </c>
-      <c r="G147" t="s">
-        <v>4</v>
       </c>
       <c r="H147">
         <v>600</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="1">
         <v>44837</v>
@@ -5025,24 +4584,21 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
-      </c>
-      <c r="G148" t="s">
-        <v>4</v>
       </c>
       <c r="H148">
         <v>1000</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C149" s="1">
         <v>44837</v>
@@ -5051,24 +4607,21 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F149" t="s">
         <v>3</v>
-      </c>
-      <c r="G149" t="s">
-        <v>4</v>
       </c>
       <c r="H149">
         <v>722</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C150" s="1">
         <v>44838</v>
@@ -5077,24 +4630,21 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F150" t="s">
         <v>3</v>
-      </c>
-      <c r="G150" t="s">
-        <v>4</v>
       </c>
       <c r="H150">
         <v>387</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" s="1">
         <v>44838</v>
@@ -5103,24 +4653,21 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F151" t="s">
         <v>3</v>
-      </c>
-      <c r="G151" t="s">
-        <v>4</v>
       </c>
       <c r="H151">
         <v>472</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C152" s="1">
         <v>44838</v>
@@ -5129,24 +4676,21 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F152" t="s">
         <v>3</v>
-      </c>
-      <c r="G152" t="s">
-        <v>4</v>
       </c>
       <c r="H152">
         <v>322</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C153" s="1">
         <v>44839</v>
@@ -5155,24 +4699,21 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
-      </c>
-      <c r="G153" t="s">
-        <v>4</v>
       </c>
       <c r="H153">
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C154" s="1">
         <v>44839</v>
@@ -5181,24 +4722,21 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F154" t="s">
         <v>3</v>
-      </c>
-      <c r="G154" t="s">
-        <v>4</v>
       </c>
       <c r="H154">
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C155" s="1">
         <v>44839</v>
@@ -5207,24 +4745,21 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F155" t="s">
         <v>3</v>
-      </c>
-      <c r="G155" t="s">
-        <v>4</v>
       </c>
       <c r="H155">
         <v>812</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C156" s="1">
         <v>44839</v>
@@ -5233,24 +4768,21 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F156" t="s">
         <v>3</v>
-      </c>
-      <c r="G156" t="s">
-        <v>4</v>
       </c>
       <c r="H156">
         <v>736</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" s="1">
         <v>44839</v>
@@ -5259,24 +4791,21 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F157" t="s">
         <v>3</v>
-      </c>
-      <c r="G157" t="s">
-        <v>4</v>
       </c>
       <c r="H157">
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" s="1">
         <v>44839</v>
@@ -5285,24 +4814,21 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
-      </c>
-      <c r="G158" t="s">
-        <v>4</v>
       </c>
       <c r="H158">
         <v>647</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C159" s="1">
         <v>44840</v>
@@ -5311,24 +4837,21 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
-      </c>
-      <c r="G159" t="s">
-        <v>4</v>
       </c>
       <c r="H159">
         <v>839</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C160" s="1">
         <v>44840</v>
@@ -5337,24 +4860,21 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F160" t="s">
         <v>3</v>
-      </c>
-      <c r="G160" t="s">
-        <v>4</v>
       </c>
       <c r="H160">
         <v>287</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C161" s="1">
         <v>44840</v>
@@ -5363,24 +4883,21 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F161" t="s">
         <v>3</v>
-      </c>
-      <c r="G161" t="s">
-        <v>4</v>
       </c>
       <c r="H161">
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C162" s="1">
         <v>44840</v>
@@ -5389,24 +4906,21 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F162" t="s">
         <v>3</v>
-      </c>
-      <c r="G162" t="s">
-        <v>4</v>
       </c>
       <c r="H162">
         <v>928</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="1">
         <v>44841</v>
@@ -5415,24 +4929,21 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F163" t="s">
         <v>3</v>
-      </c>
-      <c r="G163" t="s">
-        <v>4</v>
       </c>
       <c r="H163">
         <v>673</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" s="1">
         <v>44841</v>
@@ -5441,24 +4952,21 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
-      </c>
-      <c r="G164" t="s">
-        <v>4</v>
       </c>
       <c r="H164">
         <v>847</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C165" s="1">
         <v>44841</v>
@@ -5467,24 +4975,21 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
-      </c>
-      <c r="G165" t="s">
-        <v>4</v>
       </c>
       <c r="H165">
         <v>828</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C166" s="1">
         <v>44844</v>
@@ -5493,24 +4998,21 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F166" t="s">
         <v>3</v>
-      </c>
-      <c r="G166" t="s">
-        <v>4</v>
       </c>
       <c r="H166">
         <v>222</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C167" s="1">
         <v>44844</v>
@@ -5519,24 +5021,21 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F167" t="s">
         <v>3</v>
-      </c>
-      <c r="G167" t="s">
-        <v>4</v>
       </c>
       <c r="H167">
         <v>323</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C168" s="1">
         <v>44844</v>
@@ -5545,24 +5044,21 @@
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F168" t="s">
         <v>3</v>
-      </c>
-      <c r="G168" t="s">
-        <v>4</v>
       </c>
       <c r="H168">
         <v>444</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C169" s="1">
         <v>44844</v>
@@ -5571,24 +5067,21 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F169" t="s">
         <v>3</v>
-      </c>
-      <c r="G169" t="s">
-        <v>4</v>
       </c>
       <c r="H169">
         <v>484</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C170" s="1">
         <v>44844</v>
@@ -5597,24 +5090,21 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
-      </c>
-      <c r="G170" t="s">
-        <v>4</v>
       </c>
       <c r="H170">
         <v>959</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C171" s="1">
         <v>44844</v>
@@ -5623,24 +5113,21 @@
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
-      </c>
-      <c r="G171" t="s">
-        <v>4</v>
       </c>
       <c r="H171">
         <v>929</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C172" s="1">
         <v>44844</v>
@@ -5649,24 +5136,21 @@
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F172" t="s">
         <v>3</v>
-      </c>
-      <c r="G172" t="s">
-        <v>4</v>
       </c>
       <c r="H172">
         <v>919</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C173" s="1">
         <v>44844</v>
@@ -5675,24 +5159,21 @@
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F173" t="s">
         <v>3</v>
-      </c>
-      <c r="G173" t="s">
-        <v>4</v>
       </c>
       <c r="H173">
         <v>198</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C174" s="1">
         <v>44844</v>
@@ -5701,24 +5182,21 @@
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F174" t="s">
         <v>3</v>
-      </c>
-      <c r="G174" t="s">
-        <v>4</v>
       </c>
       <c r="H174">
         <v>278</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C175" s="1">
         <v>44844</v>
@@ -5727,24 +5205,21 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
-      </c>
-      <c r="G175" t="s">
-        <v>4</v>
       </c>
       <c r="H175">
         <v>267</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C176" s="1">
         <v>44845</v>
@@ -5753,24 +5228,21 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F176" t="s">
         <v>3</v>
-      </c>
-      <c r="G176" t="s">
-        <v>4</v>
       </c>
       <c r="H176">
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C177" s="1">
         <v>44845</v>
@@ -5779,24 +5251,21 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F177" t="s">
         <v>3</v>
-      </c>
-      <c r="G177" t="s">
-        <v>4</v>
       </c>
       <c r="H177">
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C178" s="1">
         <v>44845</v>
@@ -5805,24 +5274,21 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
-      </c>
-      <c r="G178" t="s">
-        <v>4</v>
       </c>
       <c r="H178">
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C179" s="1">
         <v>44846</v>
@@ -5831,24 +5297,21 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
-      </c>
-      <c r="G179" t="s">
-        <v>4</v>
       </c>
       <c r="H179">
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C180" s="1">
         <v>44846</v>
@@ -5857,24 +5320,21 @@
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
-      </c>
-      <c r="G180" t="s">
-        <v>4</v>
       </c>
       <c r="H180">
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C181" s="1">
         <v>44846</v>
@@ -5883,24 +5343,21 @@
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F181" t="s">
         <v>3</v>
-      </c>
-      <c r="G181" t="s">
-        <v>4</v>
       </c>
       <c r="H181">
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C182" s="1">
         <v>44846</v>
@@ -5909,24 +5366,21 @@
         <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F182" t="s">
         <v>3</v>
-      </c>
-      <c r="G182" t="s">
-        <v>4</v>
       </c>
       <c r="H182">
         <v>600</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C183" s="1">
         <v>44846</v>
@@ -5935,24 +5389,21 @@
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
-      </c>
-      <c r="G183" t="s">
-        <v>4</v>
       </c>
       <c r="H183">
         <v>1000</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C184" s="1">
         <v>44846</v>
@@ -5961,24 +5412,21 @@
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F184" t="s">
         <v>3</v>
-      </c>
-      <c r="G184" t="s">
-        <v>4</v>
       </c>
       <c r="H184">
         <v>722</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C185" s="1">
         <v>44847</v>
@@ -5987,24 +5435,21 @@
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
-      </c>
-      <c r="G185" t="s">
-        <v>4</v>
       </c>
       <c r="H185">
         <v>387</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C186" s="1">
         <v>44847</v>
@@ -6013,24 +5458,21 @@
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
-      </c>
-      <c r="G186" t="s">
-        <v>4</v>
       </c>
       <c r="H186">
         <v>472</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C187" s="1">
         <v>44847</v>
@@ -6039,24 +5481,21 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
-      </c>
-      <c r="G187" t="s">
-        <v>4</v>
       </c>
       <c r="H187">
         <v>322</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C188" s="1">
         <v>44848</v>
@@ -6065,24 +5504,21 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
-      </c>
-      <c r="G188" t="s">
-        <v>4</v>
       </c>
       <c r="H188">
         <v>123</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C189" s="1">
         <v>44849</v>
@@ -6091,24 +5527,21 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F189" t="s">
         <v>3</v>
-      </c>
-      <c r="G189" t="s">
-        <v>4</v>
       </c>
       <c r="H189">
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C190" s="1">
         <v>44850</v>
@@ -6117,24 +5550,21 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
-      </c>
-      <c r="G190" t="s">
-        <v>4</v>
       </c>
       <c r="H190">
         <v>812</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C191" s="1">
         <v>44851</v>
@@ -6143,24 +5573,21 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
-      </c>
-      <c r="G191" t="s">
-        <v>4</v>
       </c>
       <c r="H191">
         <v>736</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C192" s="1">
         <v>44852</v>
@@ -6169,24 +5596,21 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F192" t="s">
         <v>3</v>
-      </c>
-      <c r="G192" t="s">
-        <v>4</v>
       </c>
       <c r="H192">
         <v>283</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C193" s="1">
         <v>44853</v>
@@ -6195,24 +5619,21 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F193" t="s">
         <v>3</v>
-      </c>
-      <c r="G193" t="s">
-        <v>4</v>
       </c>
       <c r="H193">
         <v>647</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C194" s="1">
         <v>44854</v>
@@ -6221,24 +5642,21 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
-      </c>
-      <c r="G194" t="s">
-        <v>4</v>
       </c>
       <c r="H194">
         <v>839</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C195" s="1">
         <v>44855</v>
@@ -6247,24 +5665,21 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
-      </c>
-      <c r="G195" t="s">
-        <v>4</v>
       </c>
       <c r="H195">
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C196" s="1">
         <v>44856</v>
@@ -6273,24 +5688,21 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
-      </c>
-      <c r="G196" t="s">
-        <v>4</v>
       </c>
       <c r="H196">
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C197" s="1">
         <v>44857</v>
@@ -6299,24 +5711,21 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
-      </c>
-      <c r="G197" t="s">
-        <v>4</v>
       </c>
       <c r="H197">
         <v>928</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C198" s="1">
         <v>44858</v>
@@ -6325,24 +5734,21 @@
         <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
-      </c>
-      <c r="G198" t="s">
-        <v>4</v>
       </c>
       <c r="H198">
         <v>673</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C199" s="1">
         <v>44859</v>
@@ -6351,24 +5757,21 @@
         <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
-      </c>
-      <c r="G199" t="s">
-        <v>4</v>
       </c>
       <c r="H199">
         <v>847</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C200" s="1">
         <v>44860</v>
@@ -6377,24 +5780,21 @@
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>
-      </c>
-      <c r="G200" t="s">
-        <v>4</v>
       </c>
       <c r="H200">
         <v>828</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C201" s="1">
         <v>44861</v>
@@ -6403,24 +5803,21 @@
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F201" t="s">
         <v>3</v>
-      </c>
-      <c r="G201" t="s">
-        <v>4</v>
       </c>
       <c r="H201">
         <v>222</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C202" s="1">
         <v>44862</v>
@@ -6429,24 +5826,21 @@
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F202" t="s">
         <v>3</v>
-      </c>
-      <c r="G202" t="s">
-        <v>4</v>
       </c>
       <c r="H202">
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C203" s="1">
         <v>44863</v>
@@ -6455,24 +5849,21 @@
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
-      </c>
-      <c r="G203" t="s">
-        <v>4</v>
       </c>
       <c r="H203">
         <v>444</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C204" s="1">
         <v>44864</v>
@@ -6481,24 +5872,21 @@
         <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F204" t="s">
         <v>3</v>
-      </c>
-      <c r="G204" t="s">
-        <v>4</v>
       </c>
       <c r="H204">
         <v>484</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C205" s="1">
         <v>44857</v>
@@ -6507,24 +5895,21 @@
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F205" t="s">
         <v>3</v>
-      </c>
-      <c r="G205" t="s">
-        <v>4</v>
       </c>
       <c r="H205">
         <v>959</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C206" s="1">
         <v>44857</v>
@@ -6533,24 +5918,21 @@
         <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F206" t="s">
         <v>3</v>
-      </c>
-      <c r="G206" t="s">
-        <v>4</v>
       </c>
       <c r="H206">
         <v>929</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C207" s="1">
         <v>44857</v>
@@ -6559,24 +5941,21 @@
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F207" t="s">
         <v>3</v>
-      </c>
-      <c r="G207" t="s">
-        <v>4</v>
       </c>
       <c r="H207">
         <v>919</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C208" s="1">
         <v>44857</v>
@@ -6585,24 +5964,21 @@
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F208" t="s">
         <v>3</v>
-      </c>
-      <c r="G208" t="s">
-        <v>4</v>
       </c>
       <c r="H208">
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C209" s="1">
         <v>44863</v>
@@ -6611,24 +5987,21 @@
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F209" t="s">
         <v>3</v>
-      </c>
-      <c r="G209" t="s">
-        <v>4</v>
       </c>
       <c r="H209">
         <v>278</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C210" s="1">
         <v>44863</v>
@@ -6637,24 +6010,21 @@
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F210" t="s">
         <v>3</v>
-      </c>
-      <c r="G210" t="s">
-        <v>4</v>
       </c>
       <c r="H210">
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C211" s="1">
         <v>44864</v>
@@ -6663,13 +6033,10 @@
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F211" t="s">
         <v>3</v>
-      </c>
-      <c r="G211" t="s">
-        <v>4</v>
       </c>
       <c r="H211">
         <v>347</v>
